--- a/Web/wwwroot/archivos/MaloAdoptante.xlsx
+++ b/Web/wwwroot/archivos/MaloAdoptante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e08d016f57bd56b0/Escritorio/Laboratorio 4/CloneAdopcion/CINEUTN/Web/wwwroot/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78D087B-187A-496C-AF0B-B2D332C1C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C78D087B-187A-496C-AF0B-B2D332C1C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498042CF-2DAC-4767-B118-5AB9A758C0B3}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -114,6 +114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,7 +386,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +441,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
